--- a/app/rep/prueba.xlsx
+++ b/app/rep/prueba.xlsx
@@ -15,15 +15,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Relación del crecimiento Expo Agro Vs Expo Total</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTADOS UNIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09 CAFE TE YERBA MATE Y ESPECIAS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2010 - 2014</t>
+  </si>
   <si>
     <t>Periodo</t>
   </si>
   <si>
-    <t>Número Productos</t>
-  </si>
-  <si>
-    <t>Variación</t>
+    <t>Sector Agro. Expo FOB (US$)</t>
+  </si>
+  <si>
+    <t>Total Expo FOB (US$)</t>
   </si>
 </sst>
 </file>
@@ -386,57 +409,134 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.708252" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Relación del crecimiento Expo Agro Vs Expo Total</t>
+          </r>
+        </is>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8">
+        <v>766309375.58</v>
+      </c>
+      <c r="C8">
+        <v>4016039379.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2011</v>
+      </c>
+      <c r="B9">
+        <v>1110850542.64</v>
+      </c>
+      <c r="C9">
+        <v>4472875912.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2012</v>
+      </c>
+      <c r="B10">
+        <v>825125709.39</v>
+      </c>
+      <c r="C10">
+        <v>4363681163.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>2013</v>
       </c>
-      <c r="B5">
-        <v>97</v>
-      </c>
-      <c r="C5">
+      <c r="B11">
+        <v>851785348.69</v>
+      </c>
+      <c r="C11">
+        <v>4590071829.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>2014</v>
       </c>
-      <c r="D5">
-        <v>113</v>
-      </c>
-      <c r="E5">
-        <v>-0.14159292035398</v>
+      <c r="B12">
+        <v>833496569.23</v>
+      </c>
+      <c r="C12">
+        <v>4572161252.63</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/app/rep/prueba.xlsx
+++ b/app/rep/prueba.xlsx
@@ -15,38 +15,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">Relación del crecimiento Expo Agro Vs Expo Total</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTADOS UNIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09 CAFE TE YERBA MATE Y ESPECIAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2010 - 2014</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
-  <si>
-    <t>Sector Agro. Expo FOB (US$)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>Concentración de la Oferta Exportable  Agropecuaria y Agroindustrial de Colombia por Socio comercial</t>
+  </si>
+  <si>
+    <t>PAIS ORIGEN: ESTADOS UNIDOS</t>
+  </si>
+  <si>
+    <t>PERIOD: 2014 ENERO - MARZO</t>
+  </si>
+  <si>
+    <t>Posición arancelaria</t>
+  </si>
+  <si>
+    <t>Descripción arancel</t>
   </si>
   <si>
     <t>Total Expo FOB (US$)</t>
+  </si>
+  <si>
+    <t>Participación %</t>
+  </si>
+  <si>
+    <t>0901119000</t>
+  </si>
+  <si>
+    <t>LOS DMS CAFE SIN TOSTAR- SIN DESCAFEINAR</t>
+  </si>
+  <si>
+    <t>0603199000</t>
+  </si>
+  <si>
+    <t>LAS DEMAS FLORES Y CAPULLOS FRESCOS- CORTADOS PARA RAMOS O ADORNOS</t>
+  </si>
+  <si>
+    <t>0603110000</t>
+  </si>
+  <si>
+    <t>ROSAS FRESCAS- CORTADAS PARA RAMOS O ADORNOS</t>
+  </si>
+  <si>
+    <t>0803901100</t>
+  </si>
+  <si>
+    <t>BANANAS TIPO CAVENDISH VALERY- FRESCAS</t>
+  </si>
+  <si>
+    <t>0603141000</t>
+  </si>
+  <si>
+    <t>POMPONES FRESCOS- CORTADOS PARA RAMOS O ADORNOS</t>
+  </si>
+  <si>
+    <t>0603129000</t>
+  </si>
+  <si>
+    <t>LOS DMS CLAVELES- FRESCOS</t>
+  </si>
+  <si>
+    <t>LOS DMS EXTRACTOS- ESENCIAS Y CONCENTRADOS DE CAFE Y PREPARACIONES A BASE DE ESTOS EXTRACTOS- ESENCIAS O CONCENTRADOS O A BASE DE CAFE</t>
+  </si>
+  <si>
+    <t>Los Demas</t>
+  </si>
+  <si>
+    <t>*************************</t>
   </si>
 </sst>
 </file>
@@ -54,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -69,12 +103,30 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,13 +138,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF8F5F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF1F497D"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FFDFD7CA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDFD7CA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDFD7CA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDFD7CA"/>
+      </bottom>
+    </border>
     <border>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -102,12 +174,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,137 +493,180 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="159.104004" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">Relación del crecimiento Expo Agro Vs Expo Total</t>
-          </r>
-        </is>
-      </c>
-      <c r="B2"/>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2010</v>
-      </c>
-      <c r="B8">
-        <v>766309375.58</v>
-      </c>
-      <c r="C8">
-        <v>4016039379.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2011</v>
-      </c>
-      <c r="B9">
-        <v>1110850542.64</v>
-      </c>
-      <c r="C9">
-        <v>4472875912.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2012</v>
-      </c>
-      <c r="B10">
-        <v>825125709.39</v>
-      </c>
-      <c r="C10">
-        <v>4363681163.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2013</v>
-      </c>
-      <c r="B11">
-        <v>851785348.69</v>
-      </c>
-      <c r="C11">
-        <v>4590071829.38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2014</v>
-      </c>
-      <c r="B12">
-        <v>833496569.23</v>
-      </c>
-      <c r="C12">
-        <v>4572161252.63</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>186513688.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>122925568.56</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>74386843.9</v>
+      </c>
+      <c r="D9" s="5">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44931457.45</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>20972007.88</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>15793685.92</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>2101110090</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12669137.73</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
+        <v>121389458.3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20.15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -548,5 +675,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/rep/prueba.xlsx
+++ b/app/rep/prueba.xlsx
@@ -15,39 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t>Número de nuevos productos agropecuarios y agroindustriales exportados e importados</t>
-  </si>
-  <si>
-    <t>PAIS ORIGEN: ESTADOS UNIDOS</t>
-  </si>
-  <si>
-    <t>RANGO INICIAL: 2013 ENERO - JUNIO</t>
-  </si>
-  <si>
-    <t>RANGO FINAL: 2013 JULIO - SEPTIEMBRE</t>
-  </si>
-  <si>
-    <t>Periodo</t>
-  </si>
-  <si>
-    <t>Número Productos Importados</t>
-  </si>
-  <si>
-    <t>Número Productos Exportados</t>
-  </si>
-  <si>
-    <t>Diferencia</t>
-  </si>
-  <si>
-    <t>2013 Trimestre 1</t>
-  </si>
-  <si>
-    <t>2013 Trimestre 3</t>
-  </si>
-  <si>
-    <t>2013 Trimestre 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>Arancel de importación efectivamente pagado</t>
+  </si>
+  <si>
+    <t>POSICION ARANCELARIA: 0901212000 CAFE TOSTADO- SIN DESCAFEINAR- MOLIDO</t>
+  </si>
+  <si>
+    <t>PERIOD: 2014 ENERO - JUNIO</t>
+  </si>
+  <si>
+    <t>Posición arancelaria</t>
+  </si>
+  <si>
+    <t>Descripción arancel</t>
+  </si>
+  <si>
+    <t>País Origen</t>
+  </si>
+  <si>
+    <t>Arancel Pagado (US$)</t>
+  </si>
+  <si>
+    <t>Valor Arancel (US$)</t>
+  </si>
+  <si>
+    <t>Participación %</t>
+  </si>
+  <si>
+    <t>0901212000</t>
+  </si>
+  <si>
+    <t>CAFE TOSTADO- SIN DESCAFEINAR- MOLIDO</t>
+  </si>
+  <si>
+    <t>REINO UNIDO</t>
+  </si>
+  <si>
+    <t>ITALIA</t>
+  </si>
+  <si>
+    <t>SUIZA</t>
+  </si>
+  <si>
+    <t>ESTADOS UNIDOS</t>
+  </si>
+  <si>
+    <t>LIBANO</t>
+  </si>
+  <si>
+    <t>BELGICA</t>
+  </si>
+  <si>
+    <t>ARUBA</t>
   </si>
 </sst>
 </file>
@@ -460,22 +481,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="32.991943" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="32.991943" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="44.703369" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +505,9 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,8 +515,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -501,72 +525,174 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>73951000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>80.981843667185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>446</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9177000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>13935000</v>
+      </c>
+      <c r="F8" s="5">
+        <v>15.259861144572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
-        <v>226</v>
-      </c>
-      <c r="E8" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
-        <v>483</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="5">
         <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>483</v>
+        <v>1582000</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.7324076304781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>81000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1323000</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.448783372391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>343000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>343000</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.37561050395322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>184000</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.20149368142097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
